--- a/Assets/StreamingAssets/Excels/BulletData.xlsx
+++ b/Assets/StreamingAssets/Excels/BulletData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\TestSteamVR\Assets\StreamingAssets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\SteamVR__IK\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C410F615-4188-4499-8356-8E35AFB9AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFACAE1-5DA6-40BF-B65C-F64917A96A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34215" yWindow="2535" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -76,6 +76,13 @@
   </si>
   <si>
     <t>Weapons/Bullets/Bullet01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapons/Effects/DirtImpact</t>
+  </si>
+  <si>
+    <t>bulletHolePrePath_Chara</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,15 +411,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="10.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,8 +450,11 @@
       <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -466,9 +479,14 @@
       <c r="H2" s="1">
         <v>1000</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -493,7 +511,12 @@
       <c r="H3" s="1">
         <v>1000</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
